--- a/data/trans_bre/P40_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P40_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.07177347480973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.377436408483398</v>
+        <v>9.377436408483408</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5122637262539745</v>
@@ -649,7 +649,7 @@
         <v>0.5824792202402779</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.287315045074258</v>
+        <v>0.2873150450742584</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.186789653082007</v>
+        <v>8.636857666495766</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.37387646083143</v>
+        <v>11.28484364757909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.293202273770735</v>
+        <v>8.410512181503984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.317374198930316</v>
+        <v>3.755515513900916</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2963932684242735</v>
+        <v>0.2864418856363745</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.507436219793609</v>
+        <v>0.5044682540836666</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3633686268107145</v>
+        <v>0.3629567140384291</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.09371584253218189</v>
+        <v>0.1043935607569821</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.66185229323345</v>
+        <v>19.46157019358273</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.25854973265969</v>
+        <v>19.22092461626918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.5577899274303</v>
+        <v>15.73538402702082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.59163054169458</v>
+        <v>15.19613119143482</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7378942616877397</v>
+        <v>0.7793813071657972</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.040833385815892</v>
+        <v>1.06598845327892</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8144617624522987</v>
+        <v>0.8179308293040471</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4977138455218698</v>
+        <v>0.5171208829530138</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.6744394753015244</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5972797378306971</v>
+        <v>0.5972797378306969</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.54539918191489</v>
+        <v>7.717583860975322</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.071111822742419</v>
+        <v>7.270855407488215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.96427096626855</v>
+        <v>5.669922352569634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.422193414322091</v>
+        <v>8.170399825762425</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4382085523509007</v>
+        <v>0.4425467642371012</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3846139488550503</v>
+        <v>0.4010852742038846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3744806377159797</v>
+        <v>0.3672435001149362</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3864943332538647</v>
+        <v>0.3713271072955025</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.30246664161167</v>
+        <v>14.34257513159248</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.63251783770396</v>
+        <v>14.49976019500491</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.97573413950155</v>
+        <v>12.98292588663158</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.20876060000633</v>
+        <v>15.29665173333626</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.040885544910742</v>
+        <v>1.009015544828182</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.004582755444534</v>
+        <v>0.9864107950966646</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.051932793739871</v>
+        <v>1.077787395815626</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8711767874149644</v>
+        <v>0.8454033206121522</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.4884605272781538</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3688967126839767</v>
+        <v>0.3688967126839766</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.011537294852262</v>
+        <v>5.014000349380563</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4632687930576941</v>
+        <v>-0.668758717753152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.955061840599478</v>
+        <v>3.122135067915318</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.839829996109094</v>
+        <v>2.989394752118558</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3717926639617616</v>
+        <v>0.3949530745303108</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02667729854793448</v>
+        <v>-0.03916958008594037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1962698072673471</v>
+        <v>0.1925794041027505</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1581456506421951</v>
+        <v>0.1583308607365607</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.44245773203815</v>
+        <v>11.3861683222947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.348703627246909</v>
+        <v>7.47949343476308</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.62775384286712</v>
+        <v>10.6111398732752</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.805254654729731</v>
+        <v>9.067710679698569</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.064768195801328</v>
+        <v>1.072060844272658</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5127198734095727</v>
+        <v>0.5186274074313393</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.866809934022193</v>
+        <v>0.8551014240492377</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6136979135140597</v>
+        <v>0.6136722897039238</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.780046029344089</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.615433560526625</v>
+        <v>5.615433560526623</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8205608970861856</v>
@@ -949,7 +949,7 @@
         <v>0.2926536180770437</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4291147978845061</v>
+        <v>0.4291147978845058</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.735203028843368</v>
+        <v>3.360619402699029</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.946329720108473</v>
+        <v>1.811047832411454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.474543530631878</v>
+        <v>-1.223764063254791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.64109936093991</v>
+        <v>2.720000420172739</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2793931005284248</v>
+        <v>0.240981136371114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1350439002158639</v>
+        <v>0.1270860861094568</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03353600727946004</v>
+        <v>-0.07517988070806692</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1754576133669286</v>
+        <v>0.1782793824003324</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.86681379472255</v>
+        <v>13.72328151474348</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.26719800975779</v>
+        <v>11.27520823255222</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.867909650617351</v>
+        <v>8.378129090477477</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.077293276524342</v>
+        <v>8.623549742740472</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.664580782479594</v>
+        <v>1.613339037805917</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.183157814801554</v>
+        <v>1.175008395715618</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8336347896782149</v>
+        <v>0.7726315397904748</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7771045854727631</v>
+        <v>0.7401027658141162</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.126693058097201</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.841865715721998</v>
+        <v>8.841865715721999</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7810510276384667</v>
@@ -1049,7 +1049,7 @@
         <v>0.5709821925274581</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4737532012291312</v>
+        <v>0.4737532012291314</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.32454436418656</v>
+        <v>10.17765822871293</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.752476207793034</v>
+        <v>8.072307302563143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.914434800252659</v>
+        <v>7.004999947386574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.992544112730716</v>
+        <v>6.914478090857741</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6063146478525498</v>
+        <v>0.6000440348922317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4276694444921457</v>
+        <v>0.4469739997627981</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4160111683139663</v>
+        <v>0.4216218647845656</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3532701356952145</v>
+        <v>0.344934186916642</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.12666246604641</v>
+        <v>14.43248092797632</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.97847835596329</v>
+        <v>12.14008135348748</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.9345185112699</v>
+        <v>11.12325608898778</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.65167814063723</v>
+        <v>10.57173074656803</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9503331554409876</v>
+        <v>0.9769092970239438</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7556455106736825</v>
+        <v>0.7545662344398759</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7386955691830377</v>
+        <v>0.7369234848020902</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6031436243028392</v>
+        <v>0.5935697211267675</v>
       </c>
     </row>
     <row r="19">
